--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Wed\Desktop\JavaScript-S03-67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F9270-4FA1-47B5-B0D4-2475310B741F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FECF658-9343-46B6-9268-6DACB5C4A871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -720,18 +720,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -744,7 +732,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,130 +1089,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,24 +1228,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1330,7 +1330,9 @@
       <c r="H9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1364,7 +1366,9 @@
       <c r="H10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1398,7 +1402,9 @@
       <c r="H11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1432,7 +1438,9 @@
       <c r="H12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1466,7 +1474,9 @@
       <c r="H13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1500,7 +1510,9 @@
       <c r="H14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1534,7 +1546,9 @@
       <c r="H15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1568,7 +1582,9 @@
       <c r="H16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1602,7 +1618,9 @@
       <c r="H17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1636,7 +1654,9 @@
       <c r="H18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -1670,7 +1690,9 @@
       <c r="H19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1704,7 +1726,9 @@
       <c r="H20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -1738,7 +1762,9 @@
       <c r="H21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1772,7 +1798,9 @@
       <c r="H22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -1806,7 +1834,9 @@
       <c r="H23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1840,7 +1870,9 @@
       <c r="H24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1874,7 +1906,9 @@
       <c r="H25" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1908,7 +1942,9 @@
       <c r="H26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1942,7 +1978,9 @@
       <c r="H27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -1976,7 +2014,9 @@
       <c r="H28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2010,7 +2050,9 @@
       <c r="H29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="7"/>
+      <c r="I29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2044,7 +2086,9 @@
       <c r="H30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -2078,7 +2122,9 @@
       <c r="H31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2112,7 +2158,9 @@
       <c r="H32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2146,7 +2194,9 @@
       <c r="H33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -2180,7 +2230,9 @@
       <c r="H34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2214,7 +2266,9 @@
       <c r="H35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2248,7 +2302,9 @@
       <c r="H36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -2282,7 +2338,9 @@
       <c r="H37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2316,7 +2374,9 @@
       <c r="H38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -2350,7 +2410,9 @@
       <c r="H39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -2384,7 +2446,9 @@
       <c r="H40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -2418,7 +2482,9 @@
       <c r="H41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2452,7 +2518,9 @@
       <c r="H42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -2466,50 +2534,50 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
